--- a/useful_data/词根.xlsx
+++ b/useful_data/词根.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="628">
   <si>
     <t>词根</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1299,6 +1299,6663 @@
       </rPr>
       <t>ut</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o think,consider,believe</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eputation</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log(-logy -logue)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ord,speechh,reason</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logy:the study of   logue:a type of disscution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>err</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arth</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ar</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ea</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ubmarine</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ath</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>feeling,suffering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>athetic</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en/pun</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>penalty,to punish</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atr/mater</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>other</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qu</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ater</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cant(chant chantey)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ing</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ingu</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ongue,language</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pir</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reath,breathe</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ruth</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>erify</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>turb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o throw into confusion or upset</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>olu/volv</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o roll,wind,turn,around,twist around</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ac</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o make or do</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>benefactor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>um</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ight</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lluminate</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mbr</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hadow</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mbrella</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o clothe,to dress</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>he/theo</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>od</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heology</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>con</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mage</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rb</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ity</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rban</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ult</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>care</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ultivation</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dem/demo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>people,government by the people</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>opul</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eople</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ard</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eart</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ulp</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uilt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ulprit</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ict</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o speak</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ictionary</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ni/gno</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o know</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ecognize</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>raph</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o write</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iography</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kill</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ort</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trong</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onfort</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o cut,cut down,slay</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icision</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rypt(crypto-)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idden</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ryptography:hidden+write=secret writing</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b/abs</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rom,away,off</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hild,foot</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>urn/change</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eo</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ew</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ov</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o put,to place</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>old,hold on to</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ono</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>long,single</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>erm/termin</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o limit,bound,set limits to</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eo</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pher</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tmosphere</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ert</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o turn,to turn around</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dvertisement:将顾客注意力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>转移</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过来</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>morph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hape</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orm</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hape,form</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ormula</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oc/doct</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o teach</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>octor</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ut/tui</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o look after,guide,guard,teach</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>utor</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wo,double</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bi/bin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bicycle,binary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>di/dup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>two</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>op</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lace</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>opic</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>centr/center</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>harp point,center point of a circle</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>om</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>house,master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ominant</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mni</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ll   omni-:in all ways,in all places,without limits</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hol/holo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hole</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etro</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ack,backword,behin  describe old styles/fashions</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>empor</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emporary</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hron</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hronicle</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ri</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hree</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>riangle</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nim</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reath,soul</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nimal</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ig</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o shape or mold,form/shape</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>figure:a shape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nn/enn</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ear</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nnual</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age,lifetime    eno:a very long period of time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orp</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ady</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orps</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ang/tact</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o touch,sense to touch</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ontact</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>codi/code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trunk of a tree,document written on wooden tables</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ode,encode</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ign</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ark or sign</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ignature</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uadr/quart</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>our,fourth</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uadrangle</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etr</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>our</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ead</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>apital</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>capit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nthrop</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>human being</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ine</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ovement</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ynam</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ower</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ower</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rad</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tep,degree</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>radual</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ule</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>egular</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rit</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o judge,to decide</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ritic</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ur</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o swear,take on oath</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ury</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ent</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ive</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uint</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>io</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ife</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iology</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>irth</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enerate</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unct</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o perform,carry out</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unction</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ut</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o change</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ract</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o break/shatter</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>raction</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ele</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>istant</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elephone</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hil</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ove</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>philosophy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>neg(nec- ne-)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enial,refusal</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>egative</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ec</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ecade</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ent</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ne hundred</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entury</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>om</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ame</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ater/patr</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ather</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atron</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ega</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o appoint,to send as a deputy</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>egal</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reg</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ard,flock</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>regarious</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lu</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o flow</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rehend/prehens</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o seize</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emper</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o moderate or keep within limits/to mix</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emperate</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>urg</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o clean/cleanse</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ill</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thousand</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>illion</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emi/semi</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alf</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emicircle</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ub</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nder</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ubway</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bove,beyond</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyper(= super-)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>before,in front of</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rejudice</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ara</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eside,closely related to</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eta</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ehind,beyond</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hrough,throughout,throughly</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ant/anti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gainst</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gainst,contrary to</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ontract</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contra( =anti-)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cer/acr</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>harp,sour</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trict</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o down tight,bind or tie</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tru/struct</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o put together,build,arrange</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tructrue</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop/propri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wn</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>roperty</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ort</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o twist,wind,wrench</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iv</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o live,be alive</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>urvive</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o close</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>serv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">o be subject to </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ervant</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lus</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>inclusive,include:圈起来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ext</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o weave</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exitile</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lac</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">o please or be agreeable to </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ut/auto</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ame,self</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>utomatic</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rat</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>leasing,welcome,agreeable</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lam/claim</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o short or cry out</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>laim</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>crac/crat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emos:people democracy  theos:god  theocracy</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unc</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oint</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unctuation</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ot</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ble</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>otent</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ntrust,order</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ommand</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ndare:to rise in waves</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>anct</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oly</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>anctity</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oqu</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o talk</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loquent</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ir</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>an</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>词性：认为作为一个男人是一件好事</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>val</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trengh</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alid</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cre/cret</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o come into being,to grow</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>us</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o pour out,to melt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>erb</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>word</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>imil/simul</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ike,resembling,similar</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>imilar</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cend</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o climb</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>scend</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nym</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ame,word</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nonymous</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crib/scrip</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>escribe</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o deceive</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o loosen,freee,release</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>solu(solv-)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ydr</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ur</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>umer</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>umber,to acount</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>umeral</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ilo</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>housand</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ilometer</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icro</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mall</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>icroscope</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ulti</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>any</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>par</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qual</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ompare</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hob</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ear</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lood</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hem/hemo(-emia)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isease</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tis</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>warf,small</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nano(micro-,mini-)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uper</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ver,higher,more than</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>own,away</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>escend</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ul/null</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rm</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eapons,tools</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rms</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>urg</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o rise,spring up</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>urge</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tart</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pread,bed</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ater</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ide</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ateral</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>om</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atr</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ealer,physician</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般放在词中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>edi</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iddle</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>edium</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>appearance,form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cop</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>to look at</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>elescope</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rans</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hrough,across,beyond</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ranslation</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ro</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ro-:for,favoring   pro:before,in front of</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>roceed</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>re</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gain,back,backward</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>erm</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kin</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ndo</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ithin</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ecro</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ead body</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aleo</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ncient</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ircu/circum</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ircle</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ini/minu</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mall,least</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nter</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>etween</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sur(super- 的缩写)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ver,above</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>urface</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>co</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ith,together</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yn</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ogether,at the same time</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oxi</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oison</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en/tenu</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hin</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>echni/techno</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rt,craft,skill</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>echnology</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ong</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dio</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ne's own,private</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er/aero</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ir</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ad</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o fall</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rib</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>to give,to pay</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1306,7 +7963,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1338,6 +7995,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1648,17 +8313,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H245" sqref="H245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2537,6 +9202,2308 @@
       <c r="A72" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="B72" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D82" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D83" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D84" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D87" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D88" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D89" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D90" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D92" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D93" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D97" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D98" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D99" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D100" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D101" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D102" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D103" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D104" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D105" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D106" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D107" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D108" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D109" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D110" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D111" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D112" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D113" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D114" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D115" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D116" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D117" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D118" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D119" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D120" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D121" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D122" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D123" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D124" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D125" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D126" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D127" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D128" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D129" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D130" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D131" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D132" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D133" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D134" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D135" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D136" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D137" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D138" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D139" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D140" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D141" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D142" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D143" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D144" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D145" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D146" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D147" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D148" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D149" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D150" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D151" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D152" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D153" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D154" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D155" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D156" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D157" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D158" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D159" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D160" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D161" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D162" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D163" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D164" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D165" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D166" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D167" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D168" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D169" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D170" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D171" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D172" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D173" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D174" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D175" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D176" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D177" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D178" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D179" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D180" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D181" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D182" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D183" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D184" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D185" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D186" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D187" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D188" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D189" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D190" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D191" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D192" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D193" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D194" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D195" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D196" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D197" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D198" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D199" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D200" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D201" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D202" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D203" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D204" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D205" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D206" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D207" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D208" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D209" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D210" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D211" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D212" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D213" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D214" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D215" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D216" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D217" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D218" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D219" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D220" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D221" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D222" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D223" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D224" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D225" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D226" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D227" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D228" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D229" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D230" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D231" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D232" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D233" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D234" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D235" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D236" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D237" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D238" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D239" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D240" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D241" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D242" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D243" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D244" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D245" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D246" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D247" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D248" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D249" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D250" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D251" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D252" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D253" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D254" s="2">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
